--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value380.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value380.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9212115613014769</v>
+        <v>1.728132367134094</v>
       </c>
       <c r="B1">
-        <v>1.553469984901116</v>
+        <v>3.544512510299683</v>
       </c>
       <c r="C1">
-        <v>2.079119797690421</v>
+        <v>2.966129302978516</v>
       </c>
       <c r="D1">
-        <v>2.362994451627143</v>
+        <v>1.999465703964233</v>
       </c>
       <c r="E1">
-        <v>2.08597577410205</v>
+        <v>1.162101864814758</v>
       </c>
     </row>
   </sheetData>
